--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/苹果/苹果采购.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/苹果/苹果采购.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Woody/Documents/Git Workspace/workzone/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/苹果/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客空间配套设施建设项目/苹果/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="27300" windowHeight="16500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26720"/>
   </bookViews>
   <sheets>
     <sheet name="各实验室分类" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="162">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -510,10 +510,69 @@
     <t>表格号</t>
   </si>
   <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>未申报</t>
+    <t>一体机</t>
+    <rPh sb="0" eb="1">
+      <t>yi ti ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在办理</t>
+    <rPh sb="0" eb="1">
+      <t>zheng zai ban li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创意制作工作室</t>
+    <rPh sb="0" eb="1">
+      <t>chuang yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi zuo</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong zuo shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新开放</t>
+    <rPh sb="0" eb="1">
+      <t>chuang ixn kai fang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创新教学相关软件应用开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未批复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iMac/4.0/32GB/1TB闪存/M395X/Trackpad 2/AppleCare</t>
+    <rPh sb="17" eb="18">
+      <t>shan cun</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金色/64G/WLAN + Celluar/AppleCare/Lightning to USB 连接线 (1 米)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银色/64G/WLAN + Celluar/AppleCare/Lightning to USB 连接线 (1 米)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 英寸配备 Retina /2.8GHz/1TB内存/16G内存/AppleCare/Thunderbolt to Gigabit Ethernet/Mini DisplayPort 至 VGA 转接器/Apple 85W MagSafe 2 电源适配器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MacBook Air/2.2GB/8GB/512GB/Graphics6000/AppleCare/Mini DisplayPort 至 VGA 转接器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -521,21 +580,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;CN¥&quot;* #,##0.00_);_(&quot;CN¥&quot;* \(#,##0.00\);_(&quot;CN¥&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;CN¥&quot;* #,##0.00_);_(&quot;CN¥&quot;* \(#,##0.00\);_(&quot;CN¥&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -543,7 +602,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -552,11 +611,6 @@
       <color indexed="8"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -569,7 +623,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="DengXian"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -590,39 +644,37 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 4" xfId="4"/>
-    <cellStyle name="常规_Sheet1" xfId="5"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -921,20 +973,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
     <col min="2" max="2" width="24.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="129.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
@@ -990,8 +1042,8 @@
         <v>100</v>
       </c>
       <c r="F2" s="5">
-        <f>SUM(F3:F11)</f>
-        <v>493486</v>
+        <f>SUM(F3:F12)</f>
+        <v>642035</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1037,68 +1089,71 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2">
         <v>29201</v>
       </c>
       <c r="F4" s="3">
         <f>E4*D4</f>
-        <v>175206</v>
+        <v>146005</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="H4">
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
-      </c>
-      <c r="K4">
-        <v>759</v>
-      </c>
-      <c r="L4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
-        <v>5574</v>
+        <v>29201</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F7" si="0">E5*D5</f>
-        <v>5574</v>
+        <f>E5*D5</f>
+        <v>175206</v>
       </c>
       <c r="G5" t="s">
-        <v>141</v>
+        <v>36</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>89</v>
       </c>
       <c r="J5" t="s">
+        <v>146</v>
+      </c>
+      <c r="K5">
+        <v>759</v>
+      </c>
+      <c r="L5" t="s">
         <v>152</v>
       </c>
     </row>
@@ -1107,17 +1162,17 @@
         <v>136</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>5574</v>
+        <v>5285</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>5574</v>
+        <f t="shared" ref="F6:F9" si="0">E6*D6</f>
+        <v>5285</v>
       </c>
       <c r="G6" t="s">
         <v>141</v>
@@ -1126,112 +1181,112 @@
         <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="2">
-        <v>25586</v>
+        <v>5285</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>25586</v>
+        <v>5285</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
         <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2">
-        <v>11788</v>
+        <v>24130</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" ref="F8:F11" si="1">E8*D8</f>
-        <v>35364</v>
+        <f t="shared" si="0"/>
+        <v>24130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E9" s="2">
-        <v>10248</v>
+        <v>13314</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>143472</v>
-      </c>
-      <c r="G9" t="s">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>39942</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>13540</v>
+        <v>10248</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>27080</v>
+        <f>E10*D10</f>
+        <v>143472</v>
       </c>
       <c r="G10" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
         <v>91</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1239,29 +1294,57 @@
         <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" s="2">
+        <v>13540</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" ref="F9:F12" si="1">E11*D11</f>
+        <v>27080</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" s="2">
         <v>12840</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F12" s="3">
         <f t="shared" si="1"/>
         <v>25680</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>128</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>91</v>
       </c>
-      <c r="J11" t="s">
-        <v>152</v>
+      <c r="J12" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
